--- a/inputs/unified_input_Cd_nimply_Cu.xlsx
+++ b/inputs/unified_input_Cd_nimply_Cu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA04BE2-976E-460E-906F-446664E4A4C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE0919-B2E7-498D-B035-70E7F7A4DCBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Promoters" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>terminator associated with Califlower Mosaic Virus (CaMV) 35S promotor</t>
   </si>
   <si>
-    <t>CaMV25St</t>
-  </si>
-  <si>
     <t>Terminator associated with heat shock protein 18.2 native to arabidopsis</t>
   </si>
   <si>
@@ -640,6 +637,9 @@
   </si>
   <si>
     <t>Promoter associated with a Ribosomal Protein L13 homolog</t>
+  </si>
+  <si>
+    <t>CaMV35St</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FC0B67-C143-4E31-A58F-929298EF32F4}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1053,24 +1053,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1082,27 +1082,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
         <v>152</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1114,30 +1114,30 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1149,30 +1149,30 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1184,30 +1184,30 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
         <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1219,30 +1219,30 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1254,30 +1254,30 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
         <v>163</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1289,30 +1289,30 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1324,33 +1324,33 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" t="s">
         <v>43</v>
       </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1362,30 +1362,30 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1397,30 +1397,30 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1432,33 +1432,33 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I12" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" t="s">
-        <v>67</v>
-      </c>
       <c r="L12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1470,30 +1470,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1505,33 +1505,33 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>176</v>
-      </c>
-      <c r="I14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1543,33 +1543,33 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" t="s">
-        <v>75</v>
-      </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1581,33 +1581,33 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" t="s">
-        <v>75</v>
-      </c>
       <c r="L16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1619,30 +1619,30 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s">
         <v>90</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1654,30 +1654,30 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1689,30 +1689,30 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
         <v>93</v>
       </c>
-      <c r="H19" t="s">
-        <v>179</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>90</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1724,30 +1724,30 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" t="s">
         <v>96</v>
       </c>
-      <c r="H20" t="s">
-        <v>179</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>90</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1759,22 +1759,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" t="s">
-        <v>128</v>
-      </c>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1815,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1835,16 +1835,16 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1861,94 +1861,94 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
         <v>118</v>
-      </c>
-      <c r="H3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
         <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1984,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502EE380-1294-47CC-AC74-6448CC6863B6}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -2015,15 +2015,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2034,16 +2034,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2093,10 +2093,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2119,13 +2119,13 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2148,21 +2148,21 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2174,24 +2174,24 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2203,24 +2203,24 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2232,16 +2232,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2293,26 +2293,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2332,10 +2332,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>

--- a/inputs/unified_input_Cd_nimply_Cu.xlsx
+++ b/inputs/unified_input_Cd_nimply_Cu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE0919-B2E7-498D-B035-70E7F7A4DCBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B109DE-3A50-4056-B497-0F4AEFC36B65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Promoters" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>Half-Life</t>
-  </si>
-  <si>
-    <t>Activator (Strength)</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Gene of Enzyme mKO</t>
@@ -640,6 +634,15 @@
   </si>
   <si>
     <t>CaMV35St</t>
+  </si>
+  <si>
+    <t>Source Organism</t>
+  </si>
+  <si>
+    <t>Agrobacterium tumefaciens</t>
+  </si>
+  <si>
+    <t>Nagaya, Kawamura, and Kato, Plant &amp; Cell Physiology, 2009</t>
   </si>
 </sst>
 </file>
@@ -1053,24 +1056,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1082,27 +1085,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1114,30 +1117,30 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1149,30 +1152,30 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1184,30 +1187,30 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1219,30 +1222,30 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1254,30 +1257,30 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1289,30 +1292,30 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
         <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1324,33 +1327,33 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1362,30 +1365,30 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1397,30 +1400,30 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1432,33 +1435,33 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1470,30 +1473,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1505,33 +1508,33 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
         <v>70</v>
       </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" t="s">
-        <v>175</v>
-      </c>
-      <c r="I14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" t="s">
-        <v>72</v>
-      </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1543,33 +1546,33 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
         <v>74</v>
-      </c>
-      <c r="L15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1581,33 +1584,33 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
         <v>75</v>
-      </c>
-      <c r="H16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1619,30 +1622,30 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
         <v>88</v>
-      </c>
-      <c r="K17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1654,30 +1657,30 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" t="s">
         <v>128</v>
       </c>
-      <c r="H18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I18" t="s">
-        <v>130</v>
-      </c>
       <c r="J18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
         <v>88</v>
-      </c>
-      <c r="K18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1689,30 +1692,30 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" t="s">
         <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1724,30 +1727,30 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" t="s">
         <v>88</v>
-      </c>
-      <c r="K20" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1759,22 +1762,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" t="s">
         <v>88</v>
-      </c>
-      <c r="K21" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1815,140 +1818,140 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1982,15 +1985,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502EE380-1294-47CC-AC74-6448CC6863B6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2003,47 +2006,71 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2083,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2081,30 +2108,30 @@
         <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2116,24 +2143,24 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2145,24 +2172,24 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2174,24 +2201,24 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2203,24 +2230,24 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2232,16 +2259,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,34 +2312,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2332,13 +2359,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2405,7 +2432,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>10</v>
